--- a/_data/students.xlsx
+++ b/_data/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33509746-F56C-4386-BF4D-2F324C03A209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1A3007-B6E9-4CC0-861C-E860412C48AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -292,9 +292,6 @@
     <t>/assets/resumes/sharifzadeh-cv.pdf</t>
   </si>
   <si>
-    <t>/assets/images/headshots/khodambashi.jpg</t>
-  </si>
-  <si>
     <t>/assets/images/headshots/sharifzadeh.jpg</t>
   </si>
   <si>
@@ -322,9 +319,6 @@
     <t>/assets/images/headshots/carlson.jpg</t>
   </si>
   <si>
-    <t>/assets/images/headshots/benson.jpg</t>
-  </si>
-  <si>
     <t>/assets/images/headshots/gadekar.jpg</t>
   </si>
   <si>
@@ -341,6 +335,15 @@
   </si>
   <si>
     <t>/assets/images/headshots/roush.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/headshots/khodambashi.png</t>
+  </si>
+  <si>
+    <t>/assets/images/headshots/benson.png</t>
+  </si>
+  <si>
+    <t>/assets/images/headshots/fulton.png</t>
   </si>
 </sst>
 </file>
@@ -1199,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1266,7 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,7 +1289,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1315,7 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1331,6 +1334,9 @@
       <c r="P4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1355,7 +1361,7 @@
         <v>31</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1384,7 +1390,7 @@
         <v>28</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,7 +1416,7 @@
         <v>28</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,8 +1438,11 @@
       <c r="P8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="R8" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="S8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,6 +1461,9 @@
       <c r="P9" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="R9" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1482,7 +1494,7 @@
         <v>31</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,6 +1519,9 @@
       <c r="Q11" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="R11" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1530,6 +1545,9 @@
       <c r="Q12" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="R12" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1563,7 +1581,7 @@
         <v>31</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,7 +1610,7 @@
         <v>31</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1621,7 +1639,7 @@
         <v>28</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1644,7 +1662,7 @@
         <v>56</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,7 +1685,7 @@
         <v>31</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1690,7 +1708,7 @@
         <v>56</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1712,8 +1730,11 @@
       <c r="P19" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="R19" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="S19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1732,8 +1753,11 @@
       <c r="P20" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="R20" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="S20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1756,7 +1780,7 @@
         <v>56</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,6 +1793,9 @@
       <c r="H22" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="R22" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1779,6 +1806,9 @@
       </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/_data/students.xlsx
+++ b/_data/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1A3007-B6E9-4CC0-861C-E860412C48AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3EA50E-85F3-42CB-BC1B-ADBE5493C40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>/assets/images/headshots/fulton.png</t>
+  </si>
+  <si>
+    <t>/assets/resumes/khodambashi-cv.pdf</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1206,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1282,6 +1285,9 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>

--- a/_data/students.xlsx
+++ b/_data/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3EA50E-85F3-42CB-BC1B-ADBE5493C40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D239C0-5993-4F8E-80AF-5305F271AF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1389,11 +1389,14 @@
       <c r="K6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>91</v>

--- a/_data/students.xlsx
+++ b/_data/students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D239C0-5993-4F8E-80AF-5305F271AF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3B3590-085A-4EEF-86FC-461C57C805AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="24624" windowHeight="15768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -1206,17 +1206,17 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1448,13 +1448,10 @@
         <v>28</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S8" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1506,7 +1503,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1532,7 +1529,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1558,7 +1555,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1593,7 +1590,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1651,7 +1648,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1674,7 +1671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1697,7 +1694,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1720,7 +1717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1769,7 +1766,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1792,7 +1789,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1802,11 +1799,14 @@
       <c r="H22" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="P22" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="R22" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
@@ -1815,6 +1815,9 @@
       </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>106</v>

--- a/_data/students.xlsx
+++ b/_data/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3B3590-085A-4EEF-86FC-461C57C805AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085D2542-28F1-4006-8EA6-0B23920B25FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="24624" windowHeight="15768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="33048" windowHeight="21648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -232,15 +232,6 @@
     <t>Yuhao is a Ph.D. student in Mechanical Engineering at ASU. His research interest mainly lies in controls, robotics, and dynamic systems. Prior to joining IdeaLab, he received his M.S. degree in Mechanical Engineering from University of Florida, supervised by Dr. Prabir Barooah,  studying controls and system identifications of smart buildings. Before that, he received his B.S. degree in Mechanical Engineering from Donghua University.</t>
   </si>
   <si>
-    <t>Bio-inspired Robots
-Soft Robotics
-Learning-based Controls
-System Identifications</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>/assets/resumes/benson-resume.pdf</t>
   </si>
   <si>
@@ -347,6 +338,15 @@
   </si>
   <si>
     <t>/assets/resumes/khodambashi-cv.pdf</t>
+  </si>
+  <si>
+    <t>Dongting Li is a Systems Engineering Ph.D. student and joined IDEAlab in 2018 fall. His research focuses on robot modeling and locomotion inside granular media. He received his bachelor's degree in 2018.</t>
+  </si>
+  <si>
+    <t>bio-inspired robotics, granular media.</t>
+  </si>
+  <si>
+    <t>/assets/images/headshots/li.jpg</t>
   </si>
 </sst>
 </file>
@@ -842,10 +842,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1269,7 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>20</v>
@@ -1295,7 +1295,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,7 +1312,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>20</v>
@@ -1321,7 +1321,7 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1329,7 +1329,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -1341,7 +1344,7 @@
         <v>28</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1355,7 +1358,7 @@
         <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -1367,7 +1370,7 @@
         <v>31</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1378,7 +1381,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>20</v>
@@ -1399,7 +1402,7 @@
         <v>31</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1410,7 +1413,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>20</v>
@@ -1425,7 +1428,7 @@
         <v>28</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1436,7 +1439,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
@@ -1448,7 +1451,7 @@
         <v>28</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1468,7 +1471,7 @@
         <v>31</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1479,7 +1482,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>20</v>
@@ -1500,7 +1503,7 @@
         <v>31</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1526,7 +1529,7 @@
         <v>31</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1552,7 +1555,7 @@
         <v>31</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1563,7 +1566,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>20</v>
@@ -1587,7 +1590,7 @@
         <v>31</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1598,7 +1601,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>20</v>
@@ -1616,7 +1619,7 @@
         <v>31</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1627,7 +1630,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>20</v>
@@ -1645,7 +1648,7 @@
         <v>28</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1656,7 +1659,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
@@ -1668,7 +1671,7 @@
         <v>56</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1679,7 +1682,7 @@
         <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>20</v>
@@ -1691,7 +1694,7 @@
         <v>31</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1702,7 +1705,7 @@
         <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>20</v>
@@ -1714,7 +1717,7 @@
         <v>56</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,7 +1728,7 @@
         <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>20</v>
@@ -1737,10 +1740,10 @@
         <v>56</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1760,10 +1763,10 @@
         <v>56</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1774,7 +1777,7 @@
         <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>20</v>
@@ -1786,15 +1789,15 @@
         <v>56</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>20</v>
@@ -1803,15 +1806,15 @@
         <v>56</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
@@ -1820,7 +1823,7 @@
         <v>56</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1829,5 +1832,6 @@
     <hyperlink ref="E22" r:id="rId2" xr:uid="{90093120-C16B-4C1D-9366-744936A723A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/_data/students.xlsx
+++ b/_data/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085D2542-28F1-4006-8EA6-0B23920B25FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D383C95-00EE-432E-9B73-86B2EC6EF3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="33048" windowHeight="21648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>/assets/images/headshots/li.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bio-inspired Robots, Soft Robotics, Learning-based Controls, and System Identifications.</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1209,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1361,7 @@
         <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>

--- a/_data/students.xlsx
+++ b/_data/students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu.github.io\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D383C95-00EE-432E-9B73-86B2EC6EF3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840FCC33-E075-4361-8215-B82B91C2F08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="33048" windowHeight="21648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -292,9 +292,6 @@
     <t>/assets/images/headshots/lighthouse.jpg</t>
   </si>
   <si>
-    <t>/assets/images/headshots/brauer.jpg</t>
-  </si>
-  <si>
     <t>/assets/images/headshots/shafa.jpg</t>
   </si>
   <si>
@@ -350,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Bio-inspired Robots, Soft Robotics, Learning-based Controls, and System Identifications.</t>
+  </si>
+  <si>
+    <t>/assets/images/headshots/brauer2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1209,17 +1209,17 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>20</v>
@@ -1298,10 +1298,10 @@
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1327,15 +1327,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -1347,10 +1347,10 @@
         <v>28</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -1376,7 +1376,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1431,10 +1431,10 @@
         <v>28</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1454,10 +1454,10 @@
         <v>28</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1474,10 +1474,10 @@
         <v>31</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1506,10 +1506,10 @@
         <v>31</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1532,10 +1532,10 @@
         <v>31</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1558,10 +1558,10 @@
         <v>31</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1593,10 +1593,10 @@
         <v>31</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1622,10 +1622,10 @@
         <v>31</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1651,10 +1651,10 @@
         <v>28</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1674,10 +1674,10 @@
         <v>56</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1697,10 +1697,10 @@
         <v>31</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1720,10 +1720,10 @@
         <v>56</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1743,13 +1743,13 @@
         <v>56</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1766,13 +1766,13 @@
         <v>56</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1792,10 +1792,10 @@
         <v>56</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -1809,10 +1809,10 @@
         <v>56</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>56</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/_data/students.xlsx
+++ b/_data/students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840FCC33-E075-4361-8215-B82B91C2F08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E81186C-C8C7-43A9-BF9C-99E903B244DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>/assets/images/headshots/brauer2.jpg</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>Spring 2020</t>
   </si>
 </sst>
 </file>
@@ -1209,14 +1215,16 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,6 +1305,9 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="R2" s="1" t="s">
         <v>101</v>
       </c>
@@ -1323,6 +1334,9 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="R3" s="1" t="s">
         <v>87</v>
       </c>
@@ -1346,6 +1360,9 @@
       <c r="P4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="R4" s="1" t="s">
         <v>107</v>
       </c>
@@ -1372,6 +1389,9 @@
       <c r="P5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="Q5" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>88</v>
       </c>
@@ -1427,8 +1447,14 @@
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>109</v>
@@ -1453,6 +1479,9 @@
       <c r="P8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Q8" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="R8" s="1" t="s">
         <v>90</v>
       </c>
@@ -1467,11 +1496,11 @@
       <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P9" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>103</v>
@@ -1673,6 +1702,9 @@
       <c r="P16" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Q16" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="R16" s="1" t="s">
         <v>95</v>
       </c>
@@ -1693,8 +1725,11 @@
       <c r="I17" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="O17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="P17" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>96</v>
@@ -1719,6 +1754,9 @@
       <c r="P18" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Q18" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="R18" s="1" t="s">
         <v>97</v>
       </c>
@@ -1742,6 +1780,9 @@
       <c r="P19" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Q19" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="R19" s="1" t="s">
         <v>103</v>
       </c>
@@ -1762,6 +1803,9 @@
       <c r="M20" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="O20" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1791,6 +1835,9 @@
       <c r="P21" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Q21" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="R21" s="1" t="s">
         <v>100</v>
       </c>
@@ -1808,6 +1855,9 @@
       <c r="P22" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Q22" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="R22" s="1" t="s">
         <v>103</v>
       </c>
@@ -1824,6 +1874,9 @@
       </c>
       <c r="P23" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>103</v>

--- a/_data/students.xlsx
+++ b/_data/students.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E81186C-C8C7-43A9-BF9C-99E903B244DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C14BEB-1521-4A8C-9D5B-CCBA12F1F4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="34560" windowHeight="18792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -70,9 +80,6 @@
     <t>img_link</t>
   </si>
   <si>
-    <t>Roozbeh Khodambashi</t>
-  </si>
-  <si>
     <t>I am a Mechanical engineer by education and an Electrical engineer by practice. Before I join the Systems engineering Ph.D. program at ASU, I was a masters student at Georgia Tech working in the area of prosthetics and human augmentation for musical applications under Prof. Weinberg. I received an M.Sc. in Biomedical Engineering from Amirkabir University of Technology focusing the area of tactile sensing in robotics and minimally invasive surgery under Prof. Najarian. My B.Sc. is in Mechanical engineering from Shahrekord University.</t>
   </si>
   <si>
@@ -85,12 +92,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Spring 2017</t>
-  </si>
-  <si>
-    <t>Mohammad Sharifzadeh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mohammad is a System Engineering Ph.D. student at ASU. He graduated his MSc. in Mechatronics Engineering from University of Tehran. He was a member of TaarLab in his MSc. He worked on ``Dynamical Control &amp; Identification of 3-DOF Decouple Parallel Mechanism (Tripteron) by Constructing a Human-Robot Interaction Interface'' as MSc. thesis under supervision of Dr. Tale Masouleh and Dr. Kalhor. He has finished his BSc. as an Electrical Engineer (Control filed) at Electrical and Computer Engineering Department of Shiraz University. His bachelor thesis was about voltage controlling of a (0-50 volt) Buck-Boost converter. </t>
   </si>
   <si>
@@ -100,126 +101,63 @@
     <t>sharifzadeh@asu.edu</t>
   </si>
   <si>
-    <t>Shawn (Dongting) Li</t>
-  </si>
-  <si>
     <t>dongting@asu.edu</t>
   </si>
   <si>
     <t>Fall 2018</t>
   </si>
   <si>
-    <t>Yuhao Jiang</t>
-  </si>
-  <si>
     <t>yjian154@asu.edu</t>
   </si>
   <si>
     <t>Spring 2019</t>
   </si>
   <si>
-    <t>Guston Lighthouse</t>
-  </si>
-  <si>
     <t>glightho@asu.edu</t>
   </si>
   <si>
-    <t>Cole Brauer</t>
-  </si>
-  <si>
     <t>cbrauer@asu.edu</t>
   </si>
   <si>
-    <t>Taha Shafa</t>
-  </si>
-  <si>
     <t>tshafa@asu.edu</t>
   </si>
   <si>
-    <t>Sudhanshu Katarey</t>
-  </si>
-  <si>
     <t>skatarey@asu.edu</t>
   </si>
   <si>
-    <t>Benjamin Shuch</t>
-  </si>
-  <si>
     <t>bshuch@asu.edu</t>
   </si>
   <si>
-    <t>Fall 2016</t>
-  </si>
-  <si>
-    <t>Alia Gilbert</t>
-  </si>
-  <si>
     <t>agilber6@asu.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">Wade Adams </t>
-  </si>
-  <si>
     <t>wsadams@asu.edu</t>
   </si>
   <si>
-    <t>Jacob Knaup</t>
-  </si>
-  <si>
     <t>jknaup@asu.edu</t>
   </si>
   <si>
-    <t>Drew Carlson</t>
-  </si>
-  <si>
     <t>Andrew.J.Carlson@asu.edu</t>
   </si>
   <si>
-    <t>Summer 2017</t>
-  </si>
-  <si>
-    <t>Sheena Benson</t>
-  </si>
-  <si>
     <t>sabenson@asu.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">Vipul Gadekar </t>
-  </si>
-  <si>
     <t>vgadekar@asu.edu</t>
   </si>
   <si>
-    <t>Fall 2019</t>
-  </si>
-  <si>
-    <t>Mannat Rana</t>
-  </si>
-  <si>
     <t>mrana8@asu.edu</t>
   </si>
   <si>
-    <t>Frank Ononye</t>
-  </si>
-  <si>
     <t>fononye@asu.edu</t>
   </si>
   <si>
-    <t>Hebellyn Quezada</t>
-  </si>
-  <si>
     <t>haquezad@asu.edu</t>
   </si>
   <si>
-    <t>Clint Ewell</t>
-  </si>
-  <si>
     <t>cwewell@asu.edu</t>
   </si>
   <si>
-    <t>Dante Roush</t>
-  </si>
-  <si>
     <t>daroush@asu.edu</t>
   </si>
   <si>
@@ -268,12 +206,6 @@
     <t>/assets/resumes/brauer-resume.pdf</t>
   </si>
   <si>
-    <t>Jude Brauer</t>
-  </si>
-  <si>
-    <t>Charles Jeffries</t>
-  </si>
-  <si>
     <t>cgjeffri@asu.edu</t>
   </si>
   <si>
@@ -313,9 +245,6 @@
     <t>/assets/images/headshots/rana.jpg</t>
   </si>
   <si>
-    <t>/assets/images/headshots/ononye.jpg</t>
-  </si>
-  <si>
     <t>/assets/images/headshots/quezada.jpg</t>
   </si>
   <si>
@@ -356,6 +285,162 @@
   </si>
   <si>
     <t>Spring 2020</t>
+  </si>
+  <si>
+    <t>Summer 2020</t>
+  </si>
+  <si>
+    <t>MORE</t>
+  </si>
+  <si>
+    <t>/assets/images/headshots/ononye.jpeg</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Roozbeh</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>Yuhao</t>
+  </si>
+  <si>
+    <t>Guston</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Taha</t>
+  </si>
+  <si>
+    <t>Sudhanshu</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Alia</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Sheena</t>
+  </si>
+  <si>
+    <t>Vipul</t>
+  </si>
+  <si>
+    <t>Mannat</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Hebellyn</t>
+  </si>
+  <si>
+    <t>Clint</t>
+  </si>
+  <si>
+    <t>Dante</t>
+  </si>
+  <si>
+    <t>Jude</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Shawn (Donging)</t>
+  </si>
+  <si>
+    <t>Khodambashi</t>
+  </si>
+  <si>
+    <t>Sharifzadeh</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Jiang</t>
+  </si>
+  <si>
+    <t>Lighthouse</t>
+  </si>
+  <si>
+    <t>Brauer</t>
+  </si>
+  <si>
+    <t>Shafa</t>
+  </si>
+  <si>
+    <t>Katarey</t>
+  </si>
+  <si>
+    <t>Shuch</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Knaup</t>
+  </si>
+  <si>
+    <t>Carlson</t>
+  </si>
+  <si>
+    <t>Benson</t>
+  </si>
+  <si>
+    <t>Gadekar</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>Ononye</t>
+  </si>
+  <si>
+    <t>Quezada</t>
+  </si>
+  <si>
+    <t>Ewell</t>
+  </si>
+  <si>
+    <t>Roush</t>
+  </si>
+  <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>start_semester</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Summer</t>
   </si>
 </sst>
 </file>
@@ -1212,680 +1297,1027 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" style="1" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" customWidth="1"/>
+    <col min="5" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.109375" style="1"/>
+    <col min="21" max="21" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>B2&amp;" "&amp;C2</f>
+        <v>Benjamin Shuch</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="U2" s="1" t="str">
+        <f>S2&amp;" "&amp;T2</f>
+        <v>Fall 2016</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>B3&amp;" "&amp;C3</f>
+        <v>Drew Carlson</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <f>S3&amp;" "&amp;T3</f>
+        <v>Summer 2017</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
+        <f>B4&amp;" "&amp;C4</f>
+        <v>Roozbeh Khodambashi</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f>S4&amp;" "&amp;T4</f>
+        <v>Spring 2017</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f>B5&amp;" "&amp;C5</f>
+        <v>Jacob Knaup</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f>S5&amp;" "&amp;T5</f>
+        <v>Spring 2017</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>B6&amp;" "&amp;C6</f>
+        <v>Mohammad Sharifzadeh</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f>S6&amp;" "&amp;T6</f>
+        <v>Spring 2017</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    <row r="7" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f>B7&amp;" "&amp;C7</f>
+        <v>Sheena Benson</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f>S7&amp;" "&amp;T7</f>
+        <v>Fall 2018</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>B8&amp;" "&amp;C8</f>
+        <v>Cole Brauer</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f>S8&amp;" "&amp;T8</f>
+        <v>Fall 2018</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
+        <f>B9&amp;" "&amp;C9</f>
+        <v>Alia Gilbert</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f>S9&amp;" "&amp;T9</f>
+        <v>Fall 2018</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
+        <f>B10&amp;" "&amp;C10</f>
+        <v>Shawn (Donging) Li</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="U10" s="1" t="str">
+        <f>S10&amp;" "&amp;T10</f>
+        <v>Fall 2018</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f>B11&amp;" "&amp;C11</f>
+        <v>Guston Lighthouse</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f>S11&amp;" "&amp;T11</f>
+        <v>Fall 2018</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f>B12&amp;" "&amp;C12</f>
+        <v>Taha Shafa</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="U12" s="1" t="str">
+        <f>S12&amp;" "&amp;T12</f>
+        <v>Fall 2018</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
+        <f>B13&amp;" "&amp;C13</f>
+        <v>Wade Adams</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f>S13&amp;" "&amp;T13</f>
+        <v>Spring 2019</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
+        <f>B14&amp;" "&amp;C14</f>
+        <v>Yuhao Jiang</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f>S14&amp;" "&amp;T14</f>
+        <v>Spring 2019</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
+        <f>B15&amp;" "&amp;C15</f>
+        <v>Sudhanshu Katarey</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U15" s="1" t="str">
+        <f>S15&amp;" "&amp;T15</f>
+        <v>Spring 2019</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
+        <f>B16&amp;" "&amp;C16</f>
+        <v>Jude Brauer</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f>S16&amp;" "&amp;T16</f>
+        <v>Fall 2019</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
+        <f>B17&amp;" "&amp;C17</f>
+        <v>Clint Ewell</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f>S17&amp;" "&amp;T17</f>
+        <v>Fall 2019</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
+        <f>B18&amp;" "&amp;C18</f>
+        <v>Vipul Gadekar</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U18" s="1" t="str">
+        <f>S18&amp;" "&amp;T18</f>
+        <v>Fall 2019</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
+        <f>B19&amp;" "&amp;C19</f>
+        <v>Charles Jeffries</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U19" s="1" t="str">
+        <f>S19&amp;" "&amp;T19</f>
+        <v>Fall 2019</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="str">
+        <f>B20&amp;" "&amp;C20</f>
+        <v>Frank Ononye</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U20" s="1" t="str">
+        <f>S20&amp;" "&amp;T20</f>
+        <v>Fall 2019</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="str">
+        <f>B21&amp;" "&amp;C21</f>
+        <v>Hebellyn Quezada</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U21" s="1" t="str">
+        <f>S21&amp;" "&amp;T21</f>
+        <v>Fall 2019</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="str">
+        <f>B22&amp;" "&amp;C22</f>
+        <v>Mannat Rana</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>101</v>
+      <c r="C22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U22" s="1" t="str">
+        <f>S22&amp;" "&amp;T22</f>
+        <v>Fall 2019</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="23" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="str">
+        <f>B23&amp;" "&amp;C23</f>
+        <v>Dante Roush</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="J23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T23" s="1">
+        <v>2019</v>
+      </c>
+      <c r="U23" s="1" t="str">
+        <f>S23&amp;" "&amp;T23</f>
+        <v>Fall 2019</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W23" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X23">
+    <sortCondition ref="T2:T23"/>
+    <sortCondition descending="1" ref="S2:S23"/>
+    <sortCondition ref="C2:C23"/>
+    <sortCondition ref="B2:B23"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1" xr:uid="{DA5EDAC7-3083-4737-AD75-3A3A0F558596}"/>
-    <hyperlink ref="E22" r:id="rId2" xr:uid="{90093120-C16B-4C1D-9366-744936A723A0}"/>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{DA5EDAC7-3083-4737-AD75-3A3A0F558596}"/>
+    <hyperlink ref="G16" r:id="rId2" xr:uid="{90093120-C16B-4C1D-9366-744936A723A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
